--- a/data/for_ML/사회복지지출 금액 분류.xlsx
+++ b/data/for_ML/사회복지지출 금액 분류.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indongspace\multicampus(데이터분석)\멀티캠퍼스 캠프\파이널프로젝트\final_project\data\for_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2B0D5-D02B-4487-A3D0-23796A0CEA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447D0FA-A971-4A53-BB95-0FBFC19529F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -87,21 +87,6 @@
   </si>
   <si>
     <t>본 통계치는 승인통계로 작성되는 국내자료를 기초로 하며, OECD에서 공표하는 통계치와는 생산시점 등의 차이로 다를 수 있음</t>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,7 +529,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
